--- a/2022/Symphony/January/16.01.2022/MC Bank Statement January-2022.xlsx
+++ b/2022/Symphony/January/16.01.2022/MC Bank Statement January-2022.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="241">
   <si>
     <t>Date</t>
   </si>
@@ -728,9 +728,6 @@
     <t>Momtaj Telecom</t>
   </si>
   <si>
-    <t>29.12.2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">L=Sabbir Mobile </t>
   </si>
   <si>
@@ -807,12 +804,6 @@
   </si>
   <si>
     <t>11.01.2022</t>
-  </si>
-  <si>
-    <t>Najirpur</t>
-  </si>
-  <si>
-    <t>cd Sound</t>
   </si>
   <si>
     <t>12.01.2022</t>
@@ -5083,7 +5074,7 @@
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
       <c r="A3" s="314"/>
       <c r="B3" s="312" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="312"/>
       <c r="D3" s="312"/>
@@ -5140,7 +5131,7 @@
     <row r="7" spans="1:7">
       <c r="A7" s="314"/>
       <c r="B7" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="271">
         <v>0</v>
@@ -5158,7 +5149,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="314"/>
       <c r="B8" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="271">
         <v>0</v>
@@ -5176,7 +5167,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="314"/>
       <c r="B9" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="271">
         <v>300000</v>
@@ -5194,7 +5185,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="314"/>
       <c r="B10" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="274">
         <v>0</v>
@@ -5212,7 +5203,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="314"/>
       <c r="B11" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="271">
         <v>700000</v>
@@ -5230,7 +5221,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="314"/>
       <c r="B12" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="271">
         <v>65000</v>
@@ -5248,7 +5239,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="314"/>
       <c r="B13" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" s="271">
         <v>530000</v>
@@ -5266,7 +5257,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="314"/>
       <c r="B14" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="271">
         <v>0</v>
@@ -5284,7 +5275,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="314"/>
       <c r="B15" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="271">
         <v>0</v>
@@ -5302,7 +5293,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="314"/>
       <c r="B16" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" s="271">
         <v>180000</v>
@@ -5320,7 +5311,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="314"/>
       <c r="B17" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C17" s="271">
         <v>240000</v>
@@ -5338,7 +5329,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="314"/>
       <c r="B18" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C18" s="271">
         <v>350000</v>
@@ -5356,7 +5347,7 @@
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
       <c r="A19" s="314"/>
       <c r="B19" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C19" s="271">
         <v>430000</v>
@@ -5374,7 +5365,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="314"/>
       <c r="B20" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="271">
         <v>700000</v>
@@ -6148,8 +6139,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6206,7 +6197,7 @@
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="321" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="322"/>
       <c r="C3" s="322"/>
@@ -6318,7 +6309,7 @@
     </row>
     <row r="6" spans="1:24" s="13" customFormat="1">
       <c r="A6" s="81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="82">
         <v>1800</v>
@@ -6358,7 +6349,7 @@
     </row>
     <row r="7" spans="1:24" s="13" customFormat="1">
       <c r="A7" s="81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="82">
         <v>1000</v>
@@ -6396,7 +6387,7 @@
     </row>
     <row r="8" spans="1:24" s="13" customFormat="1">
       <c r="A8" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="82"/>
@@ -6436,7 +6427,7 @@
     </row>
     <row r="9" spans="1:24" s="13" customFormat="1">
       <c r="A9" s="81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="89">
         <v>1900</v>
@@ -6474,7 +6465,7 @@
     </row>
     <row r="10" spans="1:24" s="13" customFormat="1">
       <c r="A10" s="81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="89">
         <v>1000</v>
@@ -6514,7 +6505,7 @@
     </row>
     <row r="11" spans="1:24" s="13" customFormat="1">
       <c r="A11" s="81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" s="89"/>
       <c r="C11" s="82"/>
@@ -6552,7 +6543,7 @@
     </row>
     <row r="12" spans="1:24" s="13" customFormat="1">
       <c r="A12" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" s="89">
         <v>1300</v>
@@ -6594,7 +6585,7 @@
     </row>
     <row r="13" spans="1:24" s="13" customFormat="1">
       <c r="A13" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" s="89"/>
       <c r="C13" s="82"/>
@@ -6624,7 +6615,7 @@
     </row>
     <row r="14" spans="1:24" s="13" customFormat="1">
       <c r="A14" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B14" s="89">
         <v>1500</v>
@@ -6664,7 +6655,7 @@
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1">
       <c r="A15" s="81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="89">
         <v>800</v>
@@ -6704,7 +6695,7 @@
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
       <c r="A16" s="81" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B16" s="89"/>
       <c r="C16" s="82"/>
@@ -6744,7 +6735,7 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="81" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B17" s="89">
         <v>1700</v>
@@ -6784,7 +6775,7 @@
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="81" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B18" s="89">
         <v>1600</v>
@@ -6828,7 +6819,7 @@
     </row>
     <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="81" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B19" s="89"/>
       <c r="C19" s="82"/>
@@ -9350,6 +9341,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9363,12 +9360,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9382,7 +9373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -9512,7 +9503,7 @@
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
       <c r="A2" s="337" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="338"/>
       <c r="C2" s="338"/>
@@ -9827,7 +9818,7 @@
     </row>
     <row r="5" spans="1:97">
       <c r="A5" s="191" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" s="54">
         <v>654090</v>
@@ -9939,7 +9930,7 @@
     </row>
     <row r="6" spans="1:97">
       <c r="A6" s="192" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="55">
         <v>340240</v>
@@ -10051,7 +10042,7 @@
     </row>
     <row r="7" spans="1:97">
       <c r="A7" s="192" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="55">
         <v>527390</v>
@@ -10163,7 +10154,7 @@
     </row>
     <row r="8" spans="1:97">
       <c r="A8" s="192" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8" s="55">
         <v>282730</v>
@@ -10275,7 +10266,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="192" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" s="55">
         <v>406500</v>
@@ -10387,7 +10378,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="192" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="55">
         <v>309390</v>
@@ -10499,7 +10490,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="192" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="55">
         <v>362750</v>
@@ -10611,7 +10602,7 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="192" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="55">
         <v>26880</v>
@@ -10723,7 +10714,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="192" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="55">
         <v>383410</v>
@@ -10835,7 +10826,7 @@
     </row>
     <row r="14" spans="1:97">
       <c r="A14" s="192" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="55">
         <v>320700</v>
@@ -10947,7 +10938,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="192" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B15" s="55">
         <v>369430</v>
@@ -11059,7 +11050,7 @@
     </row>
     <row r="16" spans="1:97">
       <c r="A16" s="192" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B16" s="55">
         <v>666610</v>
@@ -11171,7 +11162,7 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" s="192" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B17" s="55">
         <v>879800</v>
@@ -11282,16 +11273,26 @@
       <c r="CS17" s="147"/>
     </row>
     <row r="18" spans="1:97">
-      <c r="A18" s="192"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="55"/>
+      <c r="A18" s="192" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="55">
+        <v>211860</v>
+      </c>
+      <c r="C18" s="58">
+        <v>241570</v>
+      </c>
+      <c r="D18" s="55">
+        <v>720</v>
+      </c>
       <c r="E18" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>242290</v>
       </c>
       <c r="F18" s="246"/>
-      <c r="G18" s="255"/>
+      <c r="G18" s="255">
+        <v>300</v>
+      </c>
       <c r="H18" s="152"/>
       <c r="I18" s="157"/>
       <c r="J18" s="157"/>
@@ -12817,23 +12818,23 @@
       </c>
       <c r="B33" s="278">
         <f>SUM(B5:B32)</f>
-        <v>5529920</v>
+        <v>5741780</v>
       </c>
       <c r="C33" s="279">
         <f>SUM(C5:C32)</f>
-        <v>5146090</v>
+        <v>5387660</v>
       </c>
       <c r="D33" s="278">
         <f>SUM(D5:D32)</f>
-        <v>31270</v>
+        <v>31990</v>
       </c>
       <c r="E33" s="278">
         <f>SUM(E5:E32)</f>
-        <v>5177360</v>
+        <v>5419650</v>
       </c>
       <c r="F33" s="278">
         <f>B33-E33</f>
-        <v>352560</v>
+        <v>322130</v>
       </c>
       <c r="G33" s="280"/>
       <c r="H33" s="148"/>
@@ -13362,7 +13363,7 @@
         <v>700</v>
       </c>
       <c r="E38" s="185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F38" s="141"/>
       <c r="G38" s="148"/>
@@ -13462,16 +13463,16 @@
         <v>110</v>
       </c>
       <c r="B39" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="125" t="s">
         <v>213</v>
-      </c>
-      <c r="C39" s="125" t="s">
-        <v>214</v>
       </c>
       <c r="D39" s="218">
         <v>290960</v>
       </c>
       <c r="E39" s="186" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F39" s="141"/>
       <c r="G39" s="148"/>
@@ -13580,7 +13581,7 @@
         <v>5840</v>
       </c>
       <c r="E40" s="185" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F40" s="141"/>
       <c r="G40" s="154"/>
@@ -13680,7 +13681,7 @@
         <v>110</v>
       </c>
       <c r="B41" s="126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C41" s="125" t="s">
         <v>193</v>
@@ -13689,7 +13690,7 @@
         <v>6000</v>
       </c>
       <c r="E41" s="185" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F41" s="146"/>
       <c r="G41" s="155" t="s">
@@ -13795,10 +13796,10 @@
       </c>
       <c r="C42" s="286"/>
       <c r="D42" s="218">
-        <v>5100</v>
+        <v>5130</v>
       </c>
       <c r="E42" s="185" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F42" s="147"/>
       <c r="G42" s="156" t="s">
@@ -13900,7 +13901,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="126" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C43" s="125" t="s">
         <v>157</v>
@@ -13909,7 +13910,7 @@
         <v>3000</v>
       </c>
       <c r="E43" s="185" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F43" s="143"/>
       <c r="G43" s="333"/>
@@ -14009,16 +14010,16 @@
         <v>110</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C44" s="125" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D44" s="218">
         <v>1600</v>
       </c>
       <c r="E44" s="185" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F44" s="144"/>
       <c r="G44" s="182"/>
@@ -14246,7 +14247,7 @@
         <v>720210</v>
       </c>
       <c r="E46" s="294" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F46" s="140"/>
       <c r="G46" s="147"/>
@@ -14364,7 +14365,7 @@
         <v>207000</v>
       </c>
       <c r="E47" s="187" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F47" s="141"/>
       <c r="G47" s="147"/>
@@ -14600,7 +14601,7 @@
         <v>150000</v>
       </c>
       <c r="E49" s="187" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F49" s="141"/>
       <c r="G49" s="147"/>
@@ -14718,7 +14719,7 @@
         <v>153780</v>
       </c>
       <c r="E50" s="187" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F50" s="141"/>
       <c r="G50" s="147"/>
@@ -14954,7 +14955,7 @@
         <v>30000</v>
       </c>
       <c r="E52" s="188" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F52" s="141"/>
       <c r="G52" s="147"/>
@@ -15070,7 +15071,7 @@
         <v>33160</v>
       </c>
       <c r="E53" s="189" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F53" s="141"/>
       <c r="G53" s="147"/>
@@ -15188,7 +15189,7 @@
         <v>54500</v>
       </c>
       <c r="E54" s="187" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F54" s="141"/>
       <c r="G54" s="147"/>
@@ -16086,7 +16087,7 @@
         <v>79590</v>
       </c>
       <c r="E62" s="187" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F62" s="140"/>
       <c r="G62" s="147"/>
@@ -17780,17 +17781,17 @@
     </row>
     <row r="77" spans="1:97">
       <c r="A77" s="238" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="60" t="s">
         <v>211</v>
-      </c>
-      <c r="B77" s="60" t="s">
-        <v>212</v>
       </c>
       <c r="C77" s="125"/>
       <c r="D77" s="221">
-        <v>7240</v>
+        <v>15730</v>
       </c>
       <c r="E77" s="188" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="F77" s="141"/>
       <c r="G77" s="147"/>
@@ -17900,7 +17901,7 @@
         <v>5610</v>
       </c>
       <c r="E78" s="188" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F78" s="141"/>
       <c r="G78" s="147"/>
@@ -18012,7 +18013,7 @@
         <v>13630</v>
       </c>
       <c r="E79" s="189" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F79" s="141"/>
       <c r="G79" s="147"/>
@@ -18120,17 +18121,17 @@
     </row>
     <row r="80" spans="1:97">
       <c r="A80" s="238" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="B80" s="60" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C80" s="125"/>
       <c r="D80" s="221">
-        <v>4216</v>
+        <v>20000</v>
       </c>
       <c r="E80" s="187" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="F80" s="141" t="s">
         <v>13</v>
@@ -18238,17 +18239,17 @@
     </row>
     <row r="81" spans="1:97">
       <c r="A81" s="238" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="B81" s="60" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="C81" s="125"/>
       <c r="D81" s="221">
-        <v>18570</v>
-      </c>
-      <c r="E81" s="188" t="s">
-        <v>233</v>
+        <v>4216</v>
+      </c>
+      <c r="E81" s="187" t="s">
+        <v>199</v>
       </c>
       <c r="F81" s="141"/>
       <c r="G81" s="147"/>
@@ -18350,17 +18351,17 @@
     </row>
     <row r="82" spans="1:97">
       <c r="A82" s="238" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="B82" s="60" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="C82" s="125"/>
       <c r="D82" s="221">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="E82" s="188" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F82" s="143"/>
       <c r="G82" s="147"/>
@@ -18468,17 +18469,17 @@
     </row>
     <row r="83" spans="1:97">
       <c r="A83" s="238" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="B83" s="60" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="C83" s="125"/>
       <c r="D83" s="221">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="E83" s="188" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="F83" s="143"/>
       <c r="G83" s="147"/>
@@ -18585,18 +18586,18 @@
       <c r="CS83" s="147"/>
     </row>
     <row r="84" spans="1:97">
-      <c r="A84" s="270" t="s">
+      <c r="A84" s="238" t="s">
         <v>107</v>
       </c>
       <c r="B84" s="60" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="C84" s="125"/>
       <c r="D84" s="221">
-        <v>37560</v>
+        <v>7000</v>
       </c>
       <c r="E84" s="188" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="F84" s="143"/>
       <c r="G84" s="147"/>
@@ -18703,18 +18704,18 @@
       <c r="CS84" s="147"/>
     </row>
     <row r="85" spans="1:97">
-      <c r="A85" s="238" t="s">
-        <v>180</v>
+      <c r="A85" s="270" t="s">
+        <v>107</v>
       </c>
       <c r="B85" s="60" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="C85" s="125"/>
       <c r="D85" s="221">
-        <v>1560</v>
-      </c>
-      <c r="E85" s="189" t="s">
-        <v>236</v>
+        <v>30560</v>
+      </c>
+      <c r="E85" s="188" t="s">
+        <v>239</v>
       </c>
       <c r="F85" s="143"/>
       <c r="G85" s="147"/>
@@ -18822,17 +18823,17 @@
     </row>
     <row r="86" spans="1:97">
       <c r="A86" s="238" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="B86" s="60" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="C86" s="125"/>
       <c r="D86" s="221">
-        <v>22880</v>
+        <v>1560</v>
       </c>
       <c r="E86" s="189" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F86" s="143"/>
       <c r="G86" s="147"/>
@@ -18947,10 +18948,10 @@
       </c>
       <c r="C87" s="125"/>
       <c r="D87" s="221">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="E87" s="187" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F87" s="141"/>
       <c r="G87" s="147"/>
@@ -19068,7 +19069,7 @@
         <v>25000</v>
       </c>
       <c r="E88" s="187" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F88" s="141"/>
       <c r="G88" s="147"/>
@@ -19186,7 +19187,7 @@
         <v>13000</v>
       </c>
       <c r="E89" s="188" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F89" s="141"/>
       <c r="G89" s="147"/>
@@ -19293,19 +19294,11 @@
       <c r="CS89" s="147"/>
     </row>
     <row r="90" spans="1:97">
-      <c r="A90" s="237" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" s="60" t="s">
-        <v>237</v>
-      </c>
+      <c r="A90" s="237"/>
+      <c r="B90" s="60"/>
       <c r="C90" s="125"/>
-      <c r="D90" s="221">
-        <v>20000</v>
-      </c>
-      <c r="E90" s="187" t="s">
-        <v>236</v>
-      </c>
+      <c r="D90" s="221"/>
+      <c r="E90" s="189"/>
       <c r="F90" s="141"/>
       <c r="G90" s="147"/>
       <c r="H90" s="197" t="s">
@@ -20210,7 +20203,7 @@
         <v>1500</v>
       </c>
       <c r="K98" s="179" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L98" s="138">
         <v>1500</v>
@@ -22434,7 +22427,7 @@
       <c r="C119" s="343"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
-        <v>2516461</v>
+        <v>2486031</v>
       </c>
       <c r="E119" s="216"/>
       <c r="F119" s="147"/>
@@ -22641,7 +22634,7 @@
       <c r="C121" s="331"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
-        <v>2516461</v>
+        <v>2486031</v>
       </c>
       <c r="E121" s="216"/>
       <c r="F121" s="147"/>
@@ -33847,7 +33840,7 @@
       <c r="L1357" s="53"/>
     </row>
   </sheetData>
-  <sortState ref="A77:E91">
+  <sortState ref="A77:E90">
     <sortCondition ref="A77"/>
   </sortState>
   <mergeCells count="7">
@@ -33874,7 +33867,7 @@
   <dimension ref="A1:Y219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33914,7 +33907,7 @@
     </row>
     <row r="3" spans="1:25" ht="23.25">
       <c r="A3" s="350" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B3" s="351"/>
       <c r="C3" s="351"/>
@@ -34050,7 +34043,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="303">
-        <v>39466.308199999854</v>
+        <v>70896.308199999854</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="283"/>
@@ -34132,14 +34125,14 @@
         <v>14</v>
       </c>
       <c r="B10" s="263">
-        <v>33809</v>
+        <v>32809</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="41" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="259">
-        <v>2516461</v>
+        <v>2486031</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="249"/>
@@ -34204,11 +34197,11 @@
       </c>
       <c r="B12" s="264">
         <f>B6+B7+B8-B10-B11</f>
-        <v>116463.81291904772</v>
+        <v>117463.81291904772</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E12" s="261">
         <v>698108</v>
@@ -34296,7 +34289,7 @@
       </c>
       <c r="B15" s="265">
         <f>B5+B6+B7+B8-B10-B11+B14</f>
-        <v>8116463.8129190477</v>
+        <v>8117463.8129190477</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
@@ -34304,7 +34297,7 @@
       </c>
       <c r="E15" s="262">
         <f>E5+E6+E7+E10+E11+E12+E13</f>
-        <v>8116463.8129190477</v>
+        <v>8117463.8129190477</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="119">
@@ -34525,7 +34518,7 @@
     </row>
     <row r="22" spans="1:25" ht="21.75">
       <c r="A22" s="128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" s="129">
         <v>290000</v>
@@ -34559,7 +34552,7 @@
     </row>
     <row r="23" spans="1:25" ht="21.75">
       <c r="A23" s="268" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" s="129">
         <v>37560</v>
@@ -34593,7 +34586,7 @@
     </row>
     <row r="24" spans="1:25" ht="21.75">
       <c r="A24" s="268" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B24" s="129">
         <v>25000</v>
